--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2461520.189993785</v>
+        <v>2588634.648931743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5504906.913109754</v>
+        <v>5886385.205235285</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>120.1008310003411</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>177.6860545379191</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>161.7215273577887</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>144.2736749426592</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -905,10 +907,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>162.4736616186348</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>104.9398479215846</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1063,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>25.41729070665533</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>22.81020360491997</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>61.03269750657452</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>206.8740482014796</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>2.892689391354574</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>201.9491407442903</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>249.2286482331091</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>68.89326695304554</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>238.5792768260963</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1588,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>257.0886989602361</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>26.29466842104885</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>150.1330858937262</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439297</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2008,16 +2010,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.59708018839067</v>
+        <v>269.6713817612742</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>133.9073134702964</v>
+        <v>161.6836051444942</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>161.6737988100398</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>146.7855775533106</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>78.71282005181834</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.5736654617868</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34.30822120475372</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2962,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>127.28725221096</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>2.892689391353674</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,10 +3195,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1213139512186</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3430,13 +3432,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>197.1249437619887</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>176.608317028149</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486154</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3509,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>78.27582229143013</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>245.0766042218735</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.6836051444979</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>124.2290557831222</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028892</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.71161987520273</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4147,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>111.6817749316116</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>562.925182441934</v>
+        <v>826.0424325316596</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>803.1821065853638</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>783.9298898107681</v>
       </c>
       <c r="E2" t="n">
-        <v>498.8761039093041</v>
+        <v>357.9529499586257</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>336.86917218843</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>572.914647509062</v>
+        <v>859.6725812491129</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1651.258607319397</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1651.258607319397</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>1247.187662827895</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>841.8503927827857</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>693.5426250668175</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>576.0367215843223</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>472.1967630996073</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>367.4948293725445</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>273.8489990554487</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>179.7952272730527</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.4191340353623</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.4191340353623</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>398.1166233149534</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>877.0555475573817</v>
       </c>
       <c r="L3" t="n">
-        <v>287.7093087981016</v>
+        <v>877.0555475573817</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825398</v>
+        <v>895.2096060463123</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>1374.148530288741</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1374.148530288741</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.087454531169</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1853.087454531169</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1711.902581474805</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1125.639869366925</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>962.1625231335879</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>822.4696344868803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.4606831336678</v>
+        <v>806.1144262036247</v>
       </c>
       <c r="C4" t="n">
-        <v>789.4881200125837</v>
+        <v>806.1144262036247</v>
       </c>
       <c r="D4" t="n">
-        <v>789.4881200125837</v>
+        <v>642.7976533303954</v>
       </c>
       <c r="E4" t="n">
-        <v>623.2799141654373</v>
+        <v>476.5894474832489</v>
       </c>
       <c r="F4" t="n">
-        <v>451.4181399399977</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>96.19346351647546</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>911.5879131381723</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1934.53329137545</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="V4" t="n">
-        <v>1652.821823983478</v>
+        <v>1048.67832275782</v>
       </c>
       <c r="W4" t="n">
-        <v>1377.969420155991</v>
+        <v>1048.67832275782</v>
       </c>
       <c r="X4" t="n">
-        <v>1377.969420155991</v>
+        <v>806.1144262036247</v>
       </c>
       <c r="Y4" t="n">
-        <v>1151.626651845733</v>
+        <v>806.1144262036247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1399.695077674639</v>
+        <v>831.8385222885897</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.834751728343</v>
+        <v>808.9781963422939</v>
       </c>
       <c r="D5" t="n">
-        <v>1357.582534953748</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>931.6055951016052</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>506.4814132910054</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
         <v>342.3666035752127</v>
@@ -4568,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>549.9383681074144</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2014.544111950078</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2014.544111950078</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1657.054697076327</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y5" t="n">
-        <v>1415.503037925765</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4652,10 @@
         <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="M6" t="n">
         <v>602.6104029955975</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
         <v>1153.275937980036</v>
@@ -4662,10 +4664,10 @@
         <v>1703.941472964474</v>
       </c>
       <c r="P6" t="n">
-        <v>1703.941472964474</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.4916043648684</v>
+        <v>840.6667190778103</v>
       </c>
       <c r="C7" t="n">
-        <v>809.5190412437844</v>
+        <v>668.6941559567263</v>
       </c>
       <c r="D7" t="n">
-        <v>646.2022683705551</v>
+        <v>505.377383083497</v>
       </c>
       <c r="E7" t="n">
-        <v>479.9940625234086</v>
+        <v>339.1691772363505</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>167.3074030109109</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4723,16 +4725,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
         <v>1451.883781619951</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502613</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.834372675126</v>
+        <v>1499.739352654329</v>
       </c>
       <c r="X7" t="n">
-        <v>1207.834372675126</v>
+        <v>1257.175456100134</v>
       </c>
       <c r="Y7" t="n">
-        <v>981.4916043648684</v>
+        <v>1030.832687789876</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.947823099961</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7948763386659</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4808,19 +4810,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1805.772648188046</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.093053396197</v>
+        <v>1495.547442888648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.755783351087</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2051.854296505396</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1771.6698480057</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1771.6698480057</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W10" t="n">
-        <v>1496.817444178213</v>
+        <v>1560.409212839745</v>
       </c>
       <c r="X10" t="n">
-        <v>1254.253547624018</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y10" t="n">
-        <v>1027.91077931376</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.080935154279</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.18020516758</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>715.2263527642958</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>715.2263527642958</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162098</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957704</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957704</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>2754.827044480652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2754.827044480652</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2754.827044480652</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2503.080935154279</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2503.080935154279</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>655.1670770651317</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>655.1670770651317</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>655.1670770651317</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1455.608689462934</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O12" t="n">
-        <v>1455.608689462934</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.2850561030398</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C13" t="n">
-        <v>336.3124929819558</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="D13" t="n">
-        <v>336.3124929819558</v>
+        <v>437.9174099097503</v>
       </c>
       <c r="E13" t="n">
-        <v>336.3124929819558</v>
+        <v>437.9174099097503</v>
       </c>
       <c r="F13" t="n">
-        <v>164.4507187565162</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2004.106009398712</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1723.921560899016</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1442.210093507045</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1167.357689679558</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X13" t="n">
-        <v>924.7937931253634</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.4510248151055</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2205.212556628314</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1778.311826641614</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1355.019205826615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>929.0422659744721</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638723</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332092</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1227.72722171149</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2028.168834109293</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>2828.610446507096</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957704</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957704</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839606</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.618109965856</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2616.932555460567</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.212556628314</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.212556628314</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679213</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679213</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679213</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945947</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292397</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.1005638205563</v>
+        <v>1040.071543941354</v>
       </c>
       <c r="C16" t="n">
-        <v>360.1280006994723</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>360.1280006994723</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>208.4784189886377</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>208.4784189886377</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>208.4784189886377</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679213</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1747.737068616533</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V16" t="n">
-        <v>1466.025601224562</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.173197397075</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="X16" t="n">
-        <v>948.6093008428799</v>
+        <v>1266.414312251612</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.2665325326219</v>
+        <v>1040.071543941354</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,46 +5515,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6620294727279</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C19" t="n">
-        <v>603.6894663516439</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D19" t="n">
-        <v>440.3726934784146</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U19" t="n">
-        <v>1991.298534268705</v>
+        <v>1963.281792393732</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.587066876733</v>
+        <v>1681.570325001761</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.734663049246</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.170766495052</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8279981847936</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,49 +5755,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>985.454412532011</v>
+        <v>1185.483835930063</v>
       </c>
       <c r="C22" t="n">
-        <v>985.454412532011</v>
+        <v>1013.511272808979</v>
       </c>
       <c r="D22" t="n">
-        <v>850.194499935752</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886055</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631659</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2119.408873334068</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>2119.408873334068</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334068</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506581</v>
       </c>
       <c r="X22" t="n">
-        <v>985.454412532011</v>
+        <v>1601.992572952386</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.454412532011</v>
+        <v>1375.649804642128</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.5477476675582</v>
+        <v>3487.551789132761</v>
       </c>
       <c r="C25" t="n">
-        <v>368.279487512699</v>
+        <v>3487.551789132761</v>
       </c>
       <c r="D25" t="n">
-        <v>368.279487512699</v>
+        <v>3324.235016259532</v>
       </c>
       <c r="E25" t="n">
-        <v>202.0712816655526</v>
+        <v>3158.026810412385</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>4146.624422709279</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>3904.060526155085</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>3677.717757844826</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8490191059097</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8764559848257</v>
+        <v>741.0530003375972</v>
       </c>
       <c r="D28" t="n">
-        <v>268.5596831115964</v>
+        <v>741.0530003375972</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5596831115964</v>
+        <v>574.8447944904507</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>402.9830202650111</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>236.7260505592432</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>913.0255634586812</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>568.9456755096874</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9456755096874</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>568.9456755096874</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7374696625409</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>230.8756954371013</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2109.658784861977</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1829.474336362281</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1829.474336362281</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1554.621932534794</v>
       </c>
       <c r="X31" t="n">
-        <v>985.454412532011</v>
+        <v>1312.058035980599</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.1116442217531</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>747.6452875977553</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>575.6727244766713</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>412.355951603442</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2053.300272181362</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1773.115823681666</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.404356289695</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W34" t="n">
-        <v>1216.551952462208</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>973.9880559080133</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>747.6452875977553</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784958</v>
+        <v>3270.011978872612</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574118</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841825</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V37" t="n">
-        <v>1633.280140028307</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.427736200819</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>3686.520715894936</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890562</v>
+        <v>3460.177947584677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629316</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7205,16 +7207,16 @@
         <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7251,28 +7253,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>353.2309747943289</v>
       </c>
       <c r="E40" t="n">
         <v>274.1644876312681</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2170.315685371786</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.414955385085</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2381.073683267897</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2778.022045335425</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2837.716175139955</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2837.716175139955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2590.164049663315</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>655.1670770651317</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>655.1670770651317</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>693.0265871760246</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>693.0265871760246</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O42" t="n">
-        <v>693.0265871760246</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>380.4509821097217</v>
+        <v>1185.483835930066</v>
       </c>
       <c r="C43" t="n">
-        <v>208.4784189886378</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>208.4784189886378</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>208.4784189886378</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>208.4784189886378</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679216</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2119.611283179494</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1876.271935405394</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1596.087486905698</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1314.376019513727</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.52361568624</v>
+        <v>1844.556469506585</v>
       </c>
       <c r="X43" t="n">
-        <v>796.9597191320454</v>
+        <v>1601.99257295239</v>
       </c>
       <c r="Y43" t="n">
-        <v>570.6169508217874</v>
+        <v>1375.649804642132</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2044.891443082751</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.990713096051</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.990713096051</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.013773243908</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.23552968699</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>1943.23552968699</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>2743.677142084793</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957705</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2871.385321309161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2513.89590643541</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.89590643541</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2102.175907603158</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2102.175907603158</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>336.3796397763832</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>336.3796397763832</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M45" t="n">
-        <v>1136.821252174186</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>1136.821252174186</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1136.821252174186</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.6337401941772</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>809.6337401941772</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>646.3169673209479</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>480.1087614738015</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>308.2469872483618</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2132.285304241626</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1888.945956467526</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U46" t="n">
-        <v>1608.76150796783</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V46" t="n">
-        <v>1327.050040575859</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W46" t="n">
-        <v>1052.197636748372</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>809.6337401941772</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>809.6337401941772</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>501.3089991395926</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>521.2079540533998</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873014</v>
       </c>
       <c r="L3" t="n">
-        <v>268.1828480767084</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>41.43421332942955</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675097</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587967</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>259.118396579808</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,7 +8227,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
@@ -8234,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>172.5227428869331</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.6511520067363</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8383,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8456,22 +8458,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>452.4414523720699</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O9" t="n">
-        <v>98.59786501766862</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>326.6138366035045</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093334</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659256</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,7 +8771,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>666.9631766140774</v>
       </c>
       <c r="P12" t="n">
-        <v>443.7517418254021</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>328.240195164719</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222296</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089947</v>
+        <v>40.20030028999405</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.3243076206832</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>464.8736204150499</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>995.5270479465637</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>438.3489008383754</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>61.33870991727026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443481</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>414.0314117529057</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,16 +11375,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222301</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>296.9254392253706</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3741506108211</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.2498895301396</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326677470262695</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.3387372424205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>143.9581690688243</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.41303789494879</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>229.7855238263081</v>
+        <v>7.711222253424523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.77629167420056</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.23215548631919</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>23.46725993656258</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>91.43033643136684</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.69064356315815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>108.0500846021734</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>37.30714779775015</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>238.0132649050053</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>13.78464034514036</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25363,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>81.76940895606268</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>63.52994056050389</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>86.27030149724484</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.207293122785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>44.20464122293424</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.23215548632288</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.938260773412</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.75192207444486</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>518259.997746489</v>
+        <v>517516.9858767395</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375277.8759566898</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375277.8759566897</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506092.7161432505</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506092.7161432504</v>
+        <v>506092.7161432505</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506092.7161432504</v>
+        <v>506092.7161432505</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506092.7161432505</v>
+        <v>506092.7161432503</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375277.8759566899</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375277.8759566898</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="D2" t="n">
         <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
-        <v>364667.1980024026</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="F2" t="n">
-        <v>364667.1980024025</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
-        <v>491776.6027452661</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="I2" t="n">
         <v>491776.6027452663</v>
@@ -26338,22 +26340,22 @@
         <v>491776.6027452664</v>
       </c>
       <c r="K2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="L2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="M2" t="n">
+        <v>491776.6027452661</v>
+      </c>
+      <c r="N2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="N2" t="n">
-        <v>491776.6027452664</v>
-      </c>
       <c r="O2" t="n">
-        <v>364667.1980024026</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="P2" t="n">
-        <v>364667.1980024027</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346214</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.9369653738</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690142</v>
+        <v>163968.7154446948</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26424,19 +26426,19 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26445,19 +26447,19 @@
         <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792741</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792738</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>15116.17365792738</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107655.9374885883</v>
+        <v>120502.7001733205</v>
       </c>
       <c r="C6" t="n">
+        <v>270653.8372297132</v>
+      </c>
+      <c r="D6" t="n">
         <v>294060.6709033254</v>
       </c>
-      <c r="D6" t="n">
-        <v>294060.6709033255</v>
-      </c>
       <c r="E6" t="n">
-        <v>228989.40038377</v>
+        <v>183171.0103422687</v>
       </c>
       <c r="F6" t="n">
-        <v>304320.351537232</v>
+        <v>398910.3668989092</v>
       </c>
       <c r="G6" t="n">
-        <v>270019.9670873685</v>
+        <v>398910.3668989092</v>
       </c>
       <c r="H6" t="n">
-        <v>398910.3668989091</v>
+        <v>398910.3668989093</v>
       </c>
       <c r="I6" t="n">
-        <v>398910.3668989091</v>
+        <v>398910.3668989092</v>
       </c>
       <c r="J6" t="n">
-        <v>253376.6969640927</v>
+        <v>272333.0983186205</v>
       </c>
       <c r="K6" t="n">
-        <v>398910.3668989093</v>
+        <v>380263.7665418894</v>
       </c>
       <c r="L6" t="n">
         <v>398910.3668989092</v>
       </c>
       <c r="M6" t="n">
-        <v>336036.4299335353</v>
+        <v>218846.4954437413</v>
       </c>
       <c r="N6" t="n">
         <v>398910.3668989093</v>
       </c>
       <c r="O6" t="n">
-        <v>304320.3515372321</v>
+        <v>398910.3668989093</v>
       </c>
       <c r="P6" t="n">
-        <v>304320.3515372322</v>
+        <v>398910.3668989092</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,16 +26798,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>300.7721089921527</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>78.08530577163268</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.872872650921522</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>134.6206777753922</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>237.822010167811</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>113.7764673242286</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>144.7258657765298</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>141.7841964037902</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>331.3947386960821</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>194.4098491431789</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>238.0132649050044</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>70.15473904492177</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>462.9969567069696</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L3" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>18.33743281710158</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>236.5429566883222</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
@@ -34954,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35103,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35176,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>415.0101894726381</v>
-      </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>75.42597529544641</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>290.8492358086951</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099016</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>643.7912868918552</v>
       </c>
       <c r="P12" t="n">
-        <v>421.9809006205734</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>290.8492358086949</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099016</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.9034401867724</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104519</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.7489458104519</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>400.9579414823513</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>376.6404523968816</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099021</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>275.1545980205419</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2588634.648931743</v>
+        <v>2587937.987726652</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114763</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5886385.205235285</v>
+        <v>5886385.205235284</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>381.8633700782651</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>177.6860545379191</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>5.359340506947329</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>144.2736749426592</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>104.9398479215846</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>22.81020360491997</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760402</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>259.7676441774644</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1189,19 +1189,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>206.8740482014796</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>8.928792705410938</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>201.9491407442903</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1530,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>68.89326695304554</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>26.29466842104885</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2010,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>269.6713817612742</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>194.5811837800189</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.6836051444942</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>161.6737988100398</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>78.71282005181834</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2535,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>34.30822120475372</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>233.7452882153516</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>105.0134374522401</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.892689391353674</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>25.79045988252825</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>176.608317028149</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486154</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536209</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.27582229143013</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.6836051444979</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>206.9048608188541</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028892</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510685933</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.0424325316596</v>
+        <v>528.1740540056944</v>
       </c>
       <c r="C2" t="n">
-        <v>803.1821065853638</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>783.9298898107681</v>
+        <v>82.02110724439883</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9529499586257</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>336.86917218843</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
@@ -4336,46 +4336,46 @@
         <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491129</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491541</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1817.55042973397</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.55042973397</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.55042973397</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489013</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489013</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1651.258607319397</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.258607319397</v>
+        <v>1319.262440338533</v>
       </c>
       <c r="W2" t="n">
-        <v>1254.867257619744</v>
+        <v>922.8710906388801</v>
       </c>
       <c r="X2" t="n">
-        <v>1247.187662827895</v>
+        <v>915.1914958470314</v>
       </c>
       <c r="Y2" t="n">
-        <v>841.8503927827857</v>
+        <v>913.8946298423258</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668175</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843223</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996073</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725445</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554487</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730527</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353623</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353623</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149534</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>877.0555475573817</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="L3" t="n">
-        <v>877.0555475573817</v>
+        <v>996.5799837771738</v>
       </c>
       <c r="M3" t="n">
-        <v>895.2096060463123</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="N3" t="n">
-        <v>1374.148530288741</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>1374.148530288741</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.087454531169</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531169</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615872</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474805</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366925</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335879</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868803</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>806.1144262036247</v>
+        <v>215.9773847772998</v>
       </c>
       <c r="C4" t="n">
-        <v>806.1144262036247</v>
+        <v>215.9773847772998</v>
       </c>
       <c r="D4" t="n">
-        <v>642.7976533303954</v>
+        <v>215.9773847772998</v>
       </c>
       <c r="E4" t="n">
-        <v>476.5894474832489</v>
+        <v>215.9773847772998</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578093</v>
+        <v>44.11561055186019</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>44.11561055186019</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>44.11561055186019</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647546</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381723</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014208</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693971</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.59375604808</v>
+        <v>1521.632369360907</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548385</v>
+        <v>1241.447920861211</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.67832275782</v>
+        <v>959.7364534692397</v>
       </c>
       <c r="W4" t="n">
-        <v>1048.67832275782</v>
+        <v>684.8840496417527</v>
       </c>
       <c r="X4" t="n">
-        <v>806.1144262036247</v>
+        <v>442.3201530875577</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.1144262036247</v>
+        <v>215.9773847772998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885897</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422939</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>789.7259795676982</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4573,16 +4573,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1123.5801824935</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2014.544111950078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2014.544111950078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1657.054697076327</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1260.663347376674</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1252.983752584825</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1153.275937980036</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1703.941472964474</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>840.6667190778103</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>668.6941559567263</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>505.377383083497</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>339.1691772363505</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>167.3074030109109</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481816</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V7" t="n">
-        <v>1774.591756481816</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W7" t="n">
-        <v>1499.739352654329</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.175456100134</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.832687789876</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.775797585523</v>
+        <v>404.3578448076699</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.915471639227</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4807,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>116.829168004879</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1503.227037680497</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>1495.547442888648</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.583757836649</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
         <v>756.3555336978366</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>485.750951392604</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>476.7319688618859</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V10" t="n">
-        <v>1764.398243894584</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W10" t="n">
-        <v>1560.409212839745</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X10" t="n">
-        <v>1317.84531628555</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="11">
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,25 +5050,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2856.963518260713</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
         <v>4789.842805209199</v>
@@ -5132,16 +5132,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>601.2341827829796</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>601.2341827829796</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D13" t="n">
-        <v>437.9174099097503</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E13" t="n">
-        <v>437.9174099097503</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W13" t="n">
-        <v>1260.306816359498</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.742919805303</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y13" t="n">
-        <v>791.4001514950452</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1429.986740661465</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1040.071543941354</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1783.830612633294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.978208805807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1266.414312251612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1040.071543941354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5515,37 +5515,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5597,13 +5597,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.6452875977553</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6727244766713</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D19" t="n">
-        <v>412.355951603442</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1963.281792393732</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V19" t="n">
-        <v>1681.570325001761</v>
+        <v>1672.694695281144</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.717921174274</v>
+        <v>1672.694695281144</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.154024620079</v>
+        <v>1430.130798726949</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.8112563098209</v>
+        <v>1203.788030416692</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5782,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930063</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808979</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2119.408873334068</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2119.408873334068</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334068</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506581</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952386</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642128</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6077,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3487.551789132761</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3487.551789132761</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3324.235016259532</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3158.026810412385</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4421.476826536767</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4146.624422709279</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3904.060526155085</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3677.717757844826</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.0255634586812</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>741.0530003375972</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>741.0530003375972</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>574.8447944904507</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9830202650111</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>236.7260505592432</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6414,22 +6414,22 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1999.570775773452</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1719.386327273756</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.589460012876</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>913.0255634586812</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>913.0255634586812</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2109.658784861977</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1829.474336362281</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1829.474336362281</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1554.621932534794</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1312.058035980599</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>1085.715267670341</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3270.011978872612</v>
+        <v>615.9842888225091</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.039415751528</v>
+        <v>444.0117257014251</v>
       </c>
       <c r="D37" t="n">
-        <v>2934.722642878299</v>
+        <v>444.0117257014251</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878299</v>
+        <v>444.0117257014251</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>272.1499514759855</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338087</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563987</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536767</v>
+        <v>1589.056897064291</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144795</v>
+        <v>1307.34542967232</v>
       </c>
       <c r="W37" t="n">
-        <v>3864.912955317308</v>
+        <v>1032.493025844833</v>
       </c>
       <c r="X37" t="n">
-        <v>3686.520715894936</v>
+        <v>1032.493025844833</v>
       </c>
       <c r="Y37" t="n">
-        <v>3460.177947584677</v>
+        <v>806.1502575345748</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L39" t="n">
-        <v>946.5481644506465</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M39" t="n">
-        <v>946.5481644506465</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>353.2309747943289</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
         <v>274.1644876312681</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
         <v>2113.800768076616</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N42" t="n">
-        <v>557.3635891120873</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="P42" t="n">
         <v>1446.844867123559</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930066</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358189</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302397</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338087</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563987</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064291</v>
       </c>
       <c r="V43" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506585</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.99257295239</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642132</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7648,46 +7648,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1529.586448057074</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302397</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>2065.542080025265</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>501.3089991395926</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533998</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884141</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>500.5723185172007</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8057,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873014</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>41.43421332942955</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675097</v>
+        <v>396.9701573582137</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587967</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>259.118396579808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8221,19 +8221,19 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P6" t="n">
-        <v>172.5227428869331</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8543,10 +8543,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>458.427044786356</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>791.8999401147988</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>666.9631766140774</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8944,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>362.1014486857561</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>40.20030028999405</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>443.1202251383856</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10451,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>299.8008876868062</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>995.5270479465637</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>305.7192985581352</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11299,13 +11299,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>630.9692526488932</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M45" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>101.2498895301396</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.9581690688243</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>7.711222253424523</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>84.31316893803248</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>79.23215548631919</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>91.43033643136684</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>108.0500846021734</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7.160666081007435</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.23940003763302</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>238.0132649050053</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>138.8039401261819</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>63.52994056050389</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>86.27030149724484</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.98949189919725</v>
       </c>
       <c r="W43" t="n">
-        <v>79.23215548632288</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919716</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506092.7161432504</v>
+        <v>506092.7161432505</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506092.7161432505</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506092.7161432505</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506092.7161432503</v>
+        <v>506092.7161432504</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506092.7161432505</v>
+        <v>506092.7161432503</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506092.7161432504</v>
+        <v>506092.7161432503</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506092.7161432504</v>
+        <v>506092.7161432503</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097679</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
         <v>509637.3345097677</v>
@@ -26322,40 +26322,40 @@
         <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="I2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="J2" t="n">
         <v>491776.6027452664</v>
       </c>
       <c r="K2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="L2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="M2" t="n">
-        <v>491776.6027452661</v>
+        <v>491776.602745266</v>
       </c>
       <c r="N2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="O2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="P2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361221</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701978</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163968.7154446948</v>
+        <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26432,34 +26432,34 @@
         <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15116.17365792738</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="L4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>15116.17365792737</v>
+      </c>
+      <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="J4" t="n">
-        <v>15116.17365792743</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15116.17365792743</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15116.17365792744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15116.17365792744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15116.17365792741</v>
-      </c>
       <c r="O4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792737</v>
       </c>
       <c r="P4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792737</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26505,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120502.7001733205</v>
+        <v>120502.7001733204</v>
       </c>
       <c r="C6" t="n">
-        <v>270653.8372297132</v>
+        <v>270653.8372297131</v>
       </c>
       <c r="D6" t="n">
-        <v>294060.6709033254</v>
+        <v>294060.6709033255</v>
       </c>
       <c r="E6" t="n">
-        <v>183171.0103422687</v>
+        <v>183119.9796800844</v>
       </c>
       <c r="F6" t="n">
-        <v>398910.3668989092</v>
+        <v>398859.3362367249</v>
       </c>
       <c r="G6" t="n">
-        <v>398910.3668989092</v>
+        <v>398859.3362367248</v>
       </c>
       <c r="H6" t="n">
-        <v>398910.3668989093</v>
+        <v>398859.3362367251</v>
       </c>
       <c r="I6" t="n">
-        <v>398910.3668989092</v>
+        <v>398859.336236725</v>
       </c>
       <c r="J6" t="n">
-        <v>272333.0983186205</v>
+        <v>272282.0676564362</v>
       </c>
       <c r="K6" t="n">
-        <v>380263.7665418894</v>
+        <v>380212.7358797052</v>
       </c>
       <c r="L6" t="n">
-        <v>398910.3668989092</v>
+        <v>398859.336236725</v>
       </c>
       <c r="M6" t="n">
-        <v>218846.4954437413</v>
+        <v>218795.464781557</v>
       </c>
       <c r="N6" t="n">
-        <v>398910.3668989093</v>
+        <v>398859.3362367249</v>
       </c>
       <c r="O6" t="n">
-        <v>398910.3668989093</v>
+        <v>398859.3362367248</v>
       </c>
       <c r="P6" t="n">
-        <v>398910.3668989092</v>
+        <v>398859.3362367248</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>33.78651057034966</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>78.08530577163268</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.41154207017945</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>134.6206777753922</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>113.7764673242286</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>141.7841964037902</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>162.8640785093684</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>194.4098491431789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>152.7548124390861</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.15473904492177</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-4.884091088141518e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-4.884091088141518e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30884,7 +30884,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-4.884091088141518e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>462.9969567069696</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>462.9969567069694</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>18.33743281710158</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
-        <v>483.776691153968</v>
+        <v>375.627129144672</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>236.5429566883222</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34941,19 +34941,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>150.7519016821045</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>437.0840165728143</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>754.4686772153671</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>643.7912868918552</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35664,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>324.5260868755248</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>17.02841056777183</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366121</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>974.1840197330221</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37940,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.81575879377</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -38019,13 +38019,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>595.2046518540839</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M45" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115312</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>
